--- a/bin/Release/Stocks Example 1.xlsx
+++ b/bin/Release/Stocks Example 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProjects\ExcelBFCFix\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89E7D8C-D4F2-4CF8-8766-EB2C74CAD1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D1D8F-0619-4610-B48F-758A65EC74F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="88">
   <si>
     <t>Project</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>16655</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9324CDA-A223-4D8B-AADB-2723F615800A}" name="Table3" displayName="Table3" ref="A5:I25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9324CDA-A223-4D8B-AADB-2723F615800A}" name="Table3" displayName="Table3" ref="A5:I11" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{436CB994-AC54-430D-9212-A8E4D2986EF6}" name="Project"/>
     <tableColumn id="2" xr3:uid="{938E0C31-C1E0-4074-A2CE-FDEBF8C67A32}" name="SR"/>
@@ -735,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,18 +749,18 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
@@ -1823,8 +1826,8 @@
       <c r="M25" s="2">
         <v>25289</v>
       </c>
-      <c r="N25" s="5">
-        <v>42697</v>
+      <c r="N25" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="O25" s="5">
         <v>42572</v>
@@ -6152,7 +6155,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zdK8BY51mpLAUBfMKEs7j/nU/3OrNvZanb2F2SF3bqLN4YsLNQCHbQ4K6fq2tA3sA9oJPDDppNHjJiO5DfhA5Q==" saltValue="rZpvGeWF/dQf4IA8iiq7BA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KMf4rbgiBh/LnTDhUW1q8SUc2zyrovfUcm9xO4NLuf6TZyTlO5K8wLJAK1Mk2s1/+Cza3LacDv2j9pG0DGWf/g==" saltValue="KUxlhTTot3i98ZDhiVzPeg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6169,7 +6172,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,12 +6180,12 @@
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
@@ -6771,10 +6774,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6782,12 +6785,12 @@
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
@@ -6990,376 +6993,6 @@
       </c>
       <c r="I11" s="1">
         <v>29704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>46050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>29623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>21001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>17468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="1">
-        <v>20731</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="1">
-        <v>27715</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10971</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="1">
-        <v>30050</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="1">
-        <v>16150</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2067</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="1">
-        <v>19397</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
